--- a/tmp/TestBillingData.xlsx
+++ b/tmp/TestBillingData.xlsx
@@ -400,52 +400,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="D1" t="str">
+        <v>category</v>
+      </c>
+      <c r="E1" t="str">
+        <v>price</v>
+      </c>
+      <c r="F1" t="str">
+        <v>cost_price</v>
+      </c>
+      <c r="G1" t="str">
+        <v>stock_quantity</v>
+      </c>
+      <c r="H1" t="str">
+        <v>unit</v>
+      </c>
+      <c r="I1" t="str">
+        <v>hsn_code</v>
+      </c>
+      <c r="J1" t="str">
+        <v>gst_rate</v>
+      </c>
+      <c r="K1" t="str">
+        <v>is_active</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>594e2ff5-1dac-4141-bfbf-0888c697862a</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Alpha Widget</v>
+      </c>
+      <c r="C2" t="str">
+        <v>AW-100</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Widgets</v>
+      </c>
+      <c r="E2">
+        <v>99.99</v>
+      </c>
+      <c r="F2">
+        <v>70</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2" t="str">
+        <v>piece</v>
+      </c>
+      <c r="I2" t="str">
+        <v>1001</v>
+      </c>
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>d6647f0d-be66-49c0-9947-304d0d13eaad</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Beta Gadget</v>
+      </c>
+      <c r="C3" t="str">
+        <v>BG-200</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Gadgets</v>
+      </c>
+      <c r="E3">
+        <v>149.5</v>
+      </c>
+      <c r="F3">
+        <v>120</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="str">
+        <v>piece</v>
+      </c>
+      <c r="I3" t="str">
+        <v>2002</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>email</v>
+      </c>
+      <c r="D1" t="str">
+        <v>phone</v>
+      </c>
+      <c r="E1" t="str">
+        <v>gstin</v>
+      </c>
+      <c r="F1" t="str">
+        <v>address</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>b4059366-584f-45d1-b842-2e2054e9b7f1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="C2" t="str">
+        <v>john@example.com</v>
+      </c>
+      <c r="D2" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v>123 Road City</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>38269074-e958-4faf-bd21-474a68066b72</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Acme Corp</v>
+      </c>
+      <c r="C3" t="str">
+        <v>acme@corp.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>5550002222</v>
+      </c>
+      <c r="E3" t="str">
+        <v>27AACCA1234F1Z2</v>
+      </c>
+      <c r="F3" t="str">
+        <v>456 Industrial Area</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>title</v>
+      </c>
+      <c r="D1" t="str">
+        <v>salary</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>92653c1f-0553-4d9a-a9d9-6d5942787f97</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Jane Smith</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Manager</v>
+      </c>
+      <c r="D2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>8e8d9d86-43b8-421b-87ba-1a743b5d61ca</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Bob Miller</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Staff</v>
+      </c>
+      <c r="D3">
+        <v>30000</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>customer_id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>total</v>
+      </c>
+      <c r="D1" t="str">
+        <v>created_at</v>
+      </c>
+      <c r="E1" t="str">
+        <v>items</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>c6443c74-26d6-4a65-b20f-20ad1e015232</v>
+      </c>
+      <c r="B2" t="str">
+        <v>b4059366-584f-45d1-b842-2e2054e9b7f1</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2" t="str">
+        <v>2025-10-30T14:54:07.153Z</v>
+      </c>
+      <c r="E2" t="str">
+        <v>[{"product_id":"594e2ff5-1dac-4141-bfbf-0888c697862a","qty":2,"price":99.99}]</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>5ecf3b24-9c3a-4e8c-9b99-aede363b2077</v>
+      </c>
+      <c r="B3" t="str">
+        <v>38269074-e958-4faf-bd21-474a68066b72</v>
+      </c>
+      <c r="C3">
+        <v>149.5</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2025-10-30T14:54:07.154Z</v>
+      </c>
+      <c r="E3" t="str">
+        <v>[{"product_id":"d6647f0d-be66-49c0-9947-304d0d13eaad","qty":1,"price":149.5}]</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
   </ignoredErrors>
 </worksheet>
 </file>